--- a/balance-java/db/数据库设计(sys_代码在线生成).xlsx
+++ b/balance-java/db/数据库设计(sys_代码在线生成).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monezhao/Pictures/GitHub/account-manager/balance-java/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C658CE8-07D3-5546-BCD0-0D37CDD30632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC1A5D2-B8B9-4441-A274-4BCE30CABB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12540" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="18840" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="17" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>修改日期</t>
   </si>
@@ -175,6 +175,11 @@
   </si>
   <si>
     <t>code_create_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否
+模糊</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14"/>
@@ -655,13 +660,14 @@
     <col min="6" max="7" width="3.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.33203125" style="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -693,16 +699,19 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -730,11 +739,14 @@
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
@@ -762,9 +774,12 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="15">
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="4"/>
       <c r="B4" s="3">
         <v>3</v>
@@ -790,9 +805,12 @@
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" s="4"/>
       <c r="B5" s="3">
         <v>4</v>
@@ -818,9 +836,12 @@
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -845,9 +866,12 @@
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -869,9 +893,12 @@
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -893,9 +920,12 @@
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15">
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -920,9 +950,12 @@
       <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="15">
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="15">
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -944,9 +977,12 @@
       <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="15">
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="15">
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -968,9 +1004,12 @@
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="30">
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="30">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1001,26 +1040,27 @@
       <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E2:E3 E6:E11 E13:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E11 E13:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H2:H3 H6:H11 H13:H1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11 H13:H1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:J4 I5 J5 I2:J3 I6:J11 I13:J1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:K1048576 I2:K11" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
